--- a/500all/speech_level/speeches_CHRG-114hhrg94306.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94306.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="380">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order today on the nuclear agreement with Iran and we continue our consideration of the possible final nuclear accord.    Earlier this month, the administration and our negotiating partners announced the ``framework'' of a final agreement that has to be hammered out by the end of June. Now, all of the essential elements of this inspections regime still need to be negotiated.    But I will mention that it was this committee that passed sanctions originally in the Senate which brought Iran to the table and it was this committee last session that passed unanimously legislation authored by Mr. Engel and myself that would in fact have given the clerics in Iran a choice between economic collapse or real compromise on their nuclear program. That bill passed the House floor 400 to 20 but that bill was held in the Senate.    So today, the ink isn't even dry on this month's announcement but we saw 2 weeks ago the chants led by the Supreme Leader in Iran, ``Yes,'' he said, ``Yes, death to America'' and then later asserted that Iran would not allow international inspectors access to Iran's military facilities.    This weekend, the deputy head of the Iranian Revolutionary Guard Corps reiterated, ``They will not even be permitted to inspect the most normal military site in their dreams.''    The administration has shrugged off such comments as Iranian domestic spin but the issue of inspections and verification will be central to how Congress judges any final agreement.    Will inspectors have quick, unimpeded, go-anywhere, anytime access? Who can these inspectors interview? What documents can they review? Can they take environmental samples? Does the IAEA have the qualified manpower and resources to take this on? Can the framework's limited centrifuge research and development restriction really be verified?    Now, Iran's long history of clandestine activity and intransigence prevents the U.S. from holding any trust whatsoever in the clerics who run Iran. Indeed, deception has been a cornerstone of their nuclear program since its inception. So when it comes to negotiating and inspections regime over the next 2 months, the U.S. must gain ground, not retreat.    A key piece of verification includes Iran coming clean on its past bomb work. We recall that the IAEA asked those 12 questions about their testing. They got an answer back up half of the first question and none of the others were responded to. That still has not happened despite long-overdue commitments on the part of Iran to international inspectors.    The IAEA remains concerned about signs of Iran's military-related activities; including designing a nuclear payload for a missile--a nuclear weapon for an ICBM missile. Iran hasn't even begun to address these concerns, and last fall 350 members wrote to the secretary of state expressing deep concerns about this lack of cooperation. Yet, the framework agreement is vague on this critical verification step.    Intrusive inspections are even more critical when you consider a recent Department of Defense study. It points out that the U.S. capabilities to locate undeclared nuclear facilities or convert nuclear programs are ``either,'' in the words of the Department of Defense study, ``inadequate, or more often, do not exist.''    And, critically, that study also reminds us that, ``verification is principally the political judgment,'' in the words of the study, ``to which monitoring and other means contribute.''    The IAEA and its inspectors will play an essential role in monitoring Iran, but it will ultimately be up to the administration and its negotiating partners, which includes Russia and China--likely acting through the U.N. Security Council or another international body--to decide whether Iran is complying with its commitments.    And this is another weak link. If Iran is caught cheating, will this or the next administration be prepared to call them out? I am not confident. Why? Because during the interim negotiations when Iran was caught testing an advanced supersonic centrifuge it faced no consequences. As one witness will testify, international inspectors can be no tougher than the countries that back them.    The history of arms-control inspections is that they are easy for political leaders to tout as a solution, but are difficult to fully implement. What looks good on the chalkboard often fails in the real world.    Even if verified, as one witness will note, this agreement still puts Iran on the path to being an accepted nuclear weapons state. And beginning in 10 years, the administration's lauded 1-year breakout period begins to fall away and Iran will be able to enrich on an industrial scale. At the same time, Iran's Revolutionary Guard is advancing its ballistic missile capability under orders from the Supreme Leader to ``mass produce'' and he has been publicly quite vocal about the need to ``mass produce'' ICBMs.    In announcing this framework agreement with Iran, the President boldly declared that ``If Iran cheats the world will know.'' Today, we will hear from former top weapons inspectors and nonproliferation experts to learn what it would take for that assertion to be true and to be credible.    And I will now turn to the ranking member for any opening remarks he may have.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Mr. Chairman, thank you for calling this hearing and thank you for your leadership of this committee. Let me also thank our witnesses for their insight and expertise.    As Congress works to address the potential deal with Iran, it is important that we seek input from all corners of the policy arena. So I look forward to a good discussion.    Before we hear the testimony of our witnesses, I would like to outline some of my reactions to the framework that has been announced and to outline some of my lingering questions and concerns.    The bottom line goal of these negotiations was to extend to 1 year the so-called breakout period--the time needed for Iran to acquire enough fissile material to build a bomb and to close all pathways for Iran to get the bomb.    As I see it, if Iran adheres to the limitations--and by the way, we all know that is a big if--the announced framework takes some important steps toward that goal. The plan would cut by two-thirds the number of centrifuges Iran is allowed to operate and those would only be able to employ first generation technology.    Under the framework, the Iraq reactor would be overhauled, ensuring that it could never be used to produce plutonium. A strict inspection regime focused on Iran's uranium mines and mills will allow us to keep a close eye on Iran's supply of nuclear fuel from the mines to the centrifuges and beyond for the next quarter century.    That way, if Iran wanted to build a bomb covertly they would not only have to build a new covert facility, they would also need to find a new secret source of uranium. And the inspection and verification provisions of the NPT and its additional protocol remain in effect for perpetuity.    However, is the deal perfect? Obviously not. I still have a lot of questions and concerns. First of all, I always said that at the start of negotiations with Iran we should have demanded that they stop enriching while we are talking. I don't think that was a big ask, considering the Security Council of the United Nations has voted multiple times to tell Iran to stop enriching.    But we didn't do it. It bothers me--continues to bother me that while we are talking with Iran about their nuclear program at the same time Iran continues to be such a bad player on the world scene.    We hear, just reading the papers today and this week, that the United States is contemplating intercepting Iranian missiles if they head to Yemen. To me, there is just something wrong with our negotiating with them on the nuclear weapons and they continue to do all these things.    They continue not only to not release Americans from their jails but the bureau chief of the Washington Post is indicted and they are talking about bringing him up for trial and talking about the charges. It just irks me to no end.    So the administration maintains that sanctions relief depends on Iran meeting its commitments under the comprehensive agreement. Iran is looking for sanctions relief on day one.    Again, the Iranian rhetoric in this venture is not helpful. We are told that sanctions will not be removed just upon the signing of the agreement and yet we hear Iran's leadership continuing to insist that it will.    Maybe it is just spin. Maybe it is just hype. But it certainly seems to me that the more you spin, the more times you say it, the more times there is hype, it becomes more difficult to climb down from that position.    That really bothers me. So when will Iran indeed have access to $130 billion in frozen assets? What will they do with those assets? What will they fund? Whom will they support? These are all things that are, obviously, important to us.    Eventually, U.N. Security Council resolutions that impose nuclear-related sanctions on Iran will be lifted. But these same resolutions also prohibit the transfer of ballistic missile technology and conventional arms to Iran.    If those restrictions disappear, then we could see even more Iranian-inspired volatility in the region and pressure on neighbors. We need clarity on these sanctions issues.    In addition, the IAEA has posed a series of questions, as the chairman mentioned, on Iran's weaponization efforts, the so-called potential military dimension, or PMD.    What happened at the Parchin military base, for example? How far along is Iran in the weaponization process? If Iran were to enrich enough fissile material to achieve a breakout how long would it then take them to build a warhead and made it to missile?    We must have answers to these questions. The proposed agreement would not allow Iran to use its advanced centrifuges to produce nuclear fuel but it would permit them to continue limited research and development on these advanced machines.    What impact would this have on Iran's breakout time after the expiration of the deal? And finally, we don't know yet how disputes about potential Iranian violations will be resolved.    What will happen if the U.S. determines that Iran is engaged in some activity that violates the agreement but Russia and China disagree? What will be the process for reimposing U.N. sanctions if Iran is caught cheating?    If these questions are not resolved in a way that satisfies these concerns, concerns that Congress has outlined repeatedly, then there are likely to be major, perhaps fatal, flaws in the final deal.    And that is why Congress must play a role in this process. I have said this from day one, again and again publicly, and last week's markup in the Senate Foreign Relations Committee signaled an important shift in that direction.    I look forward to reviewing what the full Senate passes on the floor and I hope we can expeditiously consider the Corker-Cardin compromise.    And let me close by saying that even though Iran's nuclear program poses a major threat, it is only one part of a much larger problem. I said that before.    I am deeply concerned about Iran's ballistic missile program and its destabilizing behavior in the region. Yet, these issues are outside of the scope of the negotiations. In my mind, it is difficult to separate the nuclear issue from Iran's support for Hezbollah--the terrorists of Hezbollah, Hamas, President Assad, the Houthis in Yemen or the American political prisoners in Iranian jails.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Mr. Chairman.    Today's hearing asks can we verify a nuclear agreement with Iran. We all know the answer to that--no, we cannot. Allowing access to Iran's nuclear sites declared or undeclared still ultimately resides with the regime, and defining and then enforcing any violations becomes a political matter, not a matter of fact.    We have already seen Russia rush to do business with Iran and even lifting its suspension of S-300 surface-to-air missiles before, as you said, Mr. Chairman, before the ink could even dry on the four different versions of the framework agreement fact sheets.    Putin has announced that Russia would begin trading assets like grain and construction equipment in exchange for Iranian oil and Iran has announced that China will help build five nuclear plants in Iran.    So the notion that there will be the political will to snap back any sanctions is as illusory as the administration's belief that there will be adequate verification mechanisms in this deal--Disney's Fantasyland. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Chairman Royce and Ranking Member Engel, for giving us this opportunity to really delve into the technical details of this deal.    We have experts who know exactly what is needed for a verification regime to prevent the development of nuclear weapons and let me just say I would like to see a deal succeed--I have been clear about that--but only if it is a good deal.    I want to see a deal that ensures Iran doesn't walk away in a few years with an industrial-sized nuclear infrastructure but perhaps most importantly I want a deal that ensures that we have access to any and every possible avenue for cheating, including access to military sites, and that we have adequate and swift measures in place to act if we suspect or find that Iran is doing so.    I have already laid out my concerns with aspects of the framework presented just a few weeks ago and I hope today will offer us the chance to get some clarity on whether there are technical ways to overcome those issues.    And though this is not the subject of this hearing, Mr. Chairman, I would say that for Iran to take a step to restore some credibility and some belief even in these negotiations, perhaps the best thing that they could do now will be to ensure that Amir Hekmati, Saeed Abedini, Jason Rezian and my constituent, Bob Levinson, return home to their families.    I thank you and I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Mr. Chairman, Iran will lie until the truth will suit them better. We cannot trust Iran and I see no convincing evidence that we can verify them sticking to the final deal.    Iran is still lying about its past nuclear activities. There is no reason to hope or believe Iran will start telling the truth and being honest once sanction relief comes. This hope is delusional.    After the deal to make a deal, as I call it, Supreme Leader Khamenei said there was no deal and still screams ``Death to the United States.'' The White House said sanctions would be lifted gradually. President Rouhani publicly demanded that the sanctions be lifted on the first day of the agreement.    The military has insisted that there will be no inspection of military facilities. The sides don't even agree on what this little deal may be. Iran could very well outsource its nuclear program to North Korea to avoid inspections altogether.    We cannot trust this regime. Iran has proven time and again to be deceitful and a dangerous state sponsor of terror hell bent on lying and cheating its way to obtain nuclear weapons, developing ICBMs to deliver these nukes while being a threat to the world and their own people.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman, Ranking Member Engel, for conducting this timely hearing. I would also like to thank our witnesses for being here today.    It is an important presence that we will be able to discuss with your expertise the intricacies of this framework and I know that my colleagues will benefit from your testimony.    The indefatigable work of Secretary Kerry and Secretary Moniz have helped to advance us to a historical juncture and yet the history of Iran's actions in the nuclear arena do not inspire confidence.    For any agreement to succeed, it is critical that Iran's compliance is verifiable. This will require so-called invasive inspections and monitoring that, to me, are the key to any framework.    There remain further details and questions that I am confident will be addressed this morning and I look forward to hearing from our witnesses.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Duelfer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duelfer. Thank you, Chairman Royce and Congressman Engel, members of the committee.    I last appeared before this group a decade ago when I was presenting the results of an outfit which was named the Iraq Survey Group headed by the CIA in which there were many members from the military and every part of the U.S.----</t>
   </si>
   <si>
@@ -136,18 +115,12 @@
     <t xml:space="preserve">    Chairman Royce. Mr. Rademaker.</t>
   </si>
   <si>
-    <t>Rademaker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rademaker. Thank you, Mr. Chairman and Ranking Member Engel, members of the committee. I am very pleased to be back here testifying on this issue.    You may recall I testified in June of last year on the Joint Plan of Action so I welcome this opportunity to comment on development since that time in the negotiations with Iran.    I want to note at the outset that the subject of this hearing is verification. However, the invitation letter I received indicated, and I will just paraphrase this, but I was told that the committee will be particularly interested in my larger analysis of what this deal would mean for Iran's nuclear program, assuming it upholds the agreement.    So I am taking that as an invitation to not focus so much on verification issues. We have two bona fide experts here on the panel who, I think, can do that. I will talk more to the broader implications of the deal, and I have submitted a prepared statement which I will summarize.    But I want to note at the outset that I strongly agree with the opening statements that I heard from all the members--the chairman and ranking members--and I am very pleased to see that you are asking all the right questions.    The most important point I make in my prepared statement is that at a fundamental level what the deal that it appears is going to be reached between the P5+1 and Iran fundamentally signifies is acceptance by the international community of Iran as a nuclear weapons threshold state.    Now, let me just say that again. Fundamentally, this deal will represent acceptance of Iran as a nuclear weapons threshold state. Now, I am not saying they are going to--I am not saying we are accepting that they will have nuclear weapons. Because they are remaining a party to the NPT they have a legal obligation not to produce nuclear weapons.    But to use a football metaphor, what we are agreeing to here is that we are agreeing to a pathway, to a process. But at the end of that pathway--10 to 15 years--the football line--the football is going to be on the 1-inch line and, you know, they are that close to having a nuclear weapon and that is fundamentally what is being agreed here.    And, you know, this is a radical departure in U.S. nonproliferation policy because it has been the objective of the Clinton administration, the Bush administration and the Obama administration until now not just to deny Iran a nuclear weapon but also to prevent them from being a nuclear weapons threshold state because countries that are on the 1-inch line--that are that close to having a nuclear weapon--for all practical purposes in their international relations they have to be treated as if they did have a nuclear weapon because, you know, honestly, at any given moment they are so close to having it--a screwdriver turn away--no one knows for sure that they don't have a nuclear weapon.    So they get the deference of a nuclear weapon state even without having demonstrably produced a nuclear weapon and that is essentially what is being conceded here at the end of this process.    So by any measure this is a huge retreat in U.S. policy and a big victory for Iran because, you know, for two decades they have been trying to get to this point and what they are being promised now is, after two decades of effort, in another 10 years they will have what they have long wanted.    Now, why are we doing this? Well, I think we have all heard the argument. The main argument made by the Obama administration is that this is a very good deal because it will increase Iran's nuclear weapons breakout time from 2 to 3 months today to 1 year.    And that is--you know, I think Mr. Albright and his group have raised some questions about whether that is really true but for purposes of my testimony I am assuming that is true and I will concede that that is an important accomplishment.    I mean, we are uncomfortable with Iran being able to produce a weapon--a nuclear weapon within 2 or 3 months and extending that to 1 year would be an important development.    The question I ask in my testimony is if that is an important victory for us today why does it stop being important in 10 years. You know, and let me be clear--what happens in 10 years is not that we revert to the status quo, that they go back to a 2-month or 3-month breakout time.    No. At the end of 10 years and especially after 15 years they are going to go back to a radically shorter breakout time than that and that is basically all locked in under this agreement.    And this isn't just my opinion. I mean, President Obama conceded this 2 weeks ago in a radio interview. I will just read what he said. He dismissed concerns that there--you know, of the type that Mr. Albright is raising about whether the 1-year breakout time is real.    But then he went on to say what is a more relevant fear would be that in year 13, 14, 15 they have advanced centrifuges that enrich uranium fairly rapidly and at that point the breakout times would have shrunk down almost to zero.    That is President Obama's characterization of the deal, and let me--let me stress he is talking about what happens after year 13. The way this deal is structured there are additional significant restrictions that remain in place until year 15.    So if at year 13 it is already almost down to zero for them to break out and produce a nuclear weapon it is even less than zero after year 15 when additional restrictions come off of their program.    So if anything else--if nothing else, President Obama was actually understating the effect of this deal ultimately on Iran's nuclear breakout time.    I think another point we have to understand about this breakout is that when they break out after year--you know, today when we are talking about nuclear breakout we are talking about how much time would they need to produce one weapon--one nuclear weapon.    After year 15, we are not going to be worried about one nuclear weapon. I mean, they will be on the 1-inch line for producing dozens of nuclear weapons--so, you know, an entire arsenal if they want and that is--that is the situation we are looking at.    In my testimony, I characterize this as a Faustian bargain because, you know, it is similar to the German legend about the man who, you know, wanted magical powers and so he cut a deal with the Devil where for 24 years he was given magical powers but at the end of 24 years he loses the powers and he loses his soul and spends--you know, faces a life of eternal damnation.    That is essentially what is being negotiated here. We get the benefit, good for 10 years, and at the end of that the other side gets everything that they have ever wanted and we lose the right to complain about it. We lose the right to reimpose sanctions.    If we try to change the terms of the deal, Iran will be in a position to accuse us of being the lawless nation, the nation that violates its international commitments.    Mr. Chairman, I see I am out of time. Let me just say, you know, I do make the point in my testimony that sometimes it makes sense to enter a Faustian bargain.    If you think--if you think the Devil is going to die before he is able to claim your soul or if you think he is going to be radically transformed then maybe it is a sensible thing to do.    And I served on the staff of this committee in the 1990s when the Clinton administration negotiated a nuclear deal with North Korea called the agreed framework, and they didn't advertise or they didn't make this argument publicly but I can tell you that the Clinton administration officials privately basically said, you know, don't worry about this being a Faustian bargain because haven't you--this is 1994--haven't you noticed what is going on in the world.    You know, communism is doomed. You just saw East and West Germany just reunified. So yes, we are promising all these benefits to North Korea but we are going to build nuclear reactors there and all these things. But, you know, in 15 years by the time we are done with these nuclear reactors North Korea is going to be long gone. These are going to be South Korean nuclear reactors.    And, you know, in 1994 that seemed like a fairly persuasive argument. Now, we know with the benefit of hindsight that it was wishful thinking.    I mean, the North Korean regime is still there. They are still pursuing nuclear weapons. The question I ask in my testimony is, you know, is there any reasonable basis to suspect that in 10 years the Iranian regime is going to be gone or radically transformed and I suggest that actually to the contrary there is every reason to think that this agreement strengthens the Iranian regime and makes it much easier for them to resist pressures to change.    And I, you know, go through some financial numbers. The amount of cash that Iran is to get at the outset of this deal and, you know, quickly thereafter--with your indulgence I will just read the numbers. And this is according to a Wall Street Journal story that appeared last Friday.    It says that the Obama administration estimates that implementation of the deal will give Iran access to $100 billion to $140 billion--billion U.S. dollars--in frozen funds in offshore accounts with $30 billion to $50 billion of that to be released immediately upon signature.    And, now, understand the Iranian Government budget this year is about $300 billion, okay, so they are being offered $100 billion to $140 billion, $30 billion to $50 billion of that immediately.    Now, to put that in perspective let us--you know, relative--let us look at what that would mean if--you know, if it were not Iran but the United States. The U.S. budget in--the Federal budget this year is $3.9 trillion.    So if we were being offered an equivalent amount of cash it would be for the United States between $1.3 trillion and $1.8 trillion with $390 billion to $650 billion of that to be provided immediately upon signature.    So, you know, the question I ask in my testimony is if the United States Government were being offered, roughly, $1\\1/2\\ trillion and $390 billion to $650 billion of that immediately, how much pressure would we feel to scale back our international commitments to reduce our defense spending? How much pressure would we feel to implement, you know, political reforms?    Or would we feel like hey, we are in a much better position to continue doing business the way we wanted to do business. And, you know, and I am talking here just about the cash dimension, which is actually the less important dimension.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Well, we are going to go to Mr. Albright. But on that cash dimension, what they are doing with that signing bonus in today's Wall Street Journal tens of millions of dollars to--Iran's Revolutionary Guards are transferring tens of millions of dollars this week to the--to the Hamas brigades.    So but anyway, Mr. Albright.</t>
   </si>
   <si>
-    <t>Albright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Albright. Thank you, Mr. Chairman, Ranking Member Engel and other members of the committee. I appreciate the opportunity to testify today.    I think Steve has outlined a future that is fairly bleak and I would like to return to that, if not at the end of my testimony during the question period.    Most of the points I would like to--will make have essentially been made before. I mean, I think the--many of the key verification provisions remain unresolved. I mean, the parameters have been set but the details matter and there is great differences between Iran and the United States and its partners.    And more important, I think the Iranians have taken the position to be extremely defiant and the United States has taken the position of problem solving, and I think that has put us at a disadvantage and it doesn't bode well for finding solutions that are, in a sense, gain the needed measures.    Now, where Iran has been a problem some of these things have been pointed out--refusing to allow the IAEA inspectors into military sites, not resolving the IAEA's concerns about Iran's past work on nuclear weapons through 2004 and possible work afterwards.    It has refused to stop illicit procurements for its nuclear programs. I know of at least one procurement since the JPA was implemented for the Iraq reactor that was attempted. I am told my U.S. investigatory officials there have been others.    Iran is resisting U.N. Security Council mandate controls over the procurement channel, which is an important concession that has been gained. But here is an example where the details matter.    Most of us think of the procurement channel run out of the United States or the U.N. Security Council with IAEA monitoring active verification of the end use of any goods that goes to the nuclear program.    Iran prefers a much different method, and at this point in time which method would be used is unresolved. And as others have mentioned, Iran is refusing anywhere anytime inspections.    And I think the--at this point in time the United States is going to have to take steps to significantly strengthen this deal and end up with the provisions meeting the U.S. conditions if this deal is to be verifiable.    And as I have mentioned, others have mentioned, there are legitimate concerns that the U.S. administration will not succeed and that concern certainly justifies Congress' continuing strong involvement in the creation of this agreement.    There needs to be oversight on those conditions and I feel that the--what I have heard the United States administration is more willing to share what is going on in this deal with Members of Congress, and I don't just mean ranking members and chairman but a broader set of members and their staff so that people can see the details and be able to react to those details.    Now, from my organization's point of view, there is certain conditions that are more important than others and I think members of this committee share this.    I personally think that resolving the IAEA's concerns about past and possibly ongoing nuclear weapons research and development work is critically important and to have concrete progress on that prior to any key relief of economic and financial sanctions by the United States or the EU--that there are many other conditions that also have to be met such as reducing the number of centrifuges but concrete progress in this area is necessary.    And what would concrete progress look like? Certainly, IAEA access to Parchin. But people should think of Parchin as a list of activities. It is not just a single visit. It is being able to see the equipment associated with the site. It is being able to visit the company that made this controversial high explosive chamber--did it make other chambers. It is the ability to have access to the people involved in these experiments and I would argue all of this needs to happen before the key sanctions are lifted.    Moreover, I think there needs to be time for IAEA to make an initial determination of whether Iran had a nuclear weapons program or not. I mean, the IAEA has said it plans to do that.    I think it should be done before the sanctions are relieved. Another vital area is this question of proliferation of sensitive goods.    From my own point of view. I would like to see the U.N. Security Council resolution stay in force until the IAEA has made a determination that Iran's program is indeed peaceful. That is not a short process, particularly under the additional protocol to make that determination.    But, personally, I think that is the way it should be. The framework envisions perhaps the Security Council resolutions coming off quicker but a new resolution being established that would then control these proliferation-sensitive goods.    Whether that is adequate or not I don't know. Part of it rests on a list of goods that would be provided to Iran that represent the ones that are explicitly controlled. Is that list good enough? Our initial indications are that list is not sufficient and needs to be, in a sense, longer in order for it to be effective.    Also would like to see Iran commit to not conduct illicit nuclear trade. President Rouhani himself has said they are proud of smuggling. Never heard a President of a country ever say that. They will continue their illicit procurement patterns.    Without a commitment on the nuclear, at least, it is hard to see that they are committing to a verifiable regime. And then again, let me just end that the additional inspection provisions are critical.    Now, anytime inspections are theoretically impossible and what Charles Duelfer described in Iraq could never--probably never be obtained. But what is envisioned by Iran is completely unacceptable. Even what is in the additional protocol is not enough.    You have got to have prompt access and the administration has some proposals. Iran has not accepted those and I think the administration needs to be pushed to have even more prompt inspections and certainly they need to be pushed to press Iran to accept anywhere inspections. That, as several members have pointed out, is not the case today and Iran has said it has no intention to do that.    The last thing I would like to say is that this deal, and I believe it probably will happen, is going to be very tough to implement and I would argue one of the problems with the agreed framework negotiated with North Korea in the '90s, as Steve mentioned, is that the administration kind of didn't do very much on implementation and Congress mostly focused on some of the budgetary issues and some of the compliance issues.    But the--but there wasn't active work to ensure that the deal was implemented and compliance was obtained and/or punished if it wasn't going to happen.    So I would argue that Congress will have a continuing role and will need to have a very important role in monitoring the effectiveness of this deal both in the short term and in the long term.    Thank you.</t>
   </si>
   <si>
@@ -223,9 +196,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. It is said that no deal is better than a bad deal. That looks good on a political bumper sticker. I think our choice is between a bad deal, perhaps a very bad deal, and a very bad and intractable situation.    I want to thank Mr. Rademaker for making it clear just how bad this deal is in year 10 or maybe year 13. They will literally be on the 1-inch line.    The President has acknowledged that. You have said it clearly. And the reason for that is during this deal they will have, roughly, 5,000 centrifuges that are IR1s.    Starting in year 10, maybe if we negotiate very well year 13, they can have an unlimited number of centrifuges and those centrifuges will be perhaps 10 times as efficient and that will shrink their breakout time from 1 year to 1 day.    Just do the math--20 times as many centrifuges and those centrifuges are 10 times as powerful. So the question--you know, I know we are supposed to ask you questions but people are asking us questions--what do we do now and what do we do when a deal is submitted to us.    As to what we do now, we have got to put pressure on the President to at least meet his minimum objectives, and I think you gentlemen have pointed out two very important areas.    One is the signing bonus--the idea that if we release $30 billion or perhaps $130 billion while Iran keeps its stockpiles and hasn't yet dismantled the centrifuges Iran could take all the benefits and back out of this deal by Labor Day $130 billion richer.    The purpose of these hearings is to focus on verification. We need go anywhere, go anytime or almost any--or with a very short notice and we need to be able to use environmental testing. The administration has said they are going to achieve that but then I--we saw Secretary Kerry try to argue to us that don't worry, Iran won't have a nuclear weapon because they can't have a nuclear weapon because that would violate the nonproliferation treaty.    That is using the word can't as you can't do it and still be an upstanding honest nation. I don't think that is a real bar to Iran. We are told that the additional protocol is going to give us access, and I am going to get to that in a question.    Trust me there is a question in here somewhere. The--I want to commend the chairman for having these hearings because that is part of the effort of letting the administration know that they have to meet at least their own stated minimum objectives.    And finally, the administration will tell us that these inspections are the most intrusive ever. That is comparing these inspections to what we need to make sure the Netherlands doesn't develop a nuclear bomb.    We have to compare these inspections to what we need to prevent Iran from having a nuclear bomb. The question of what we do long term when a deal is--if a deal is submitted that the President submits to us and has accepted there are those who say we blow up the deal where does that leave us.    It leaves us with the whole world thinking that Congress is the unreasonable party. It leaves us with an administration that has taken the military option off the table.    It leaves us with Iran's centrifuges all intact rather than two-thirds to three-quarters dismantled. They are stockpiled, ready to go. They are a few months away and nobody wants to cooperate with us in international sanctions because the President has said that it is the Congress, not the ayatollahs, that are being unreasonable.    After all, the ayatollahs will have signed the agreement and Congress will have blown it up. But the other side of this is that we cannot approve the agreement and leave it to a future President and a future Congress to decide what to do in 2 years, 5 years or 10 years because as I think Mr. Albright has pointed out, this might be a good deal for 10 years, might even be a good deal for 13 years but after that it is a deal to put them, as Mr. Rademaker says, on the 1-inch line.    If I can sneak in a question--Mr. Albright, it took us 2 years to get into Fordow. Does the additional protocol and the NPT give us the kind of prompt access that we would need?</t>
   </si>
   <si>
@@ -247,9 +217,6 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Chairman, and thank you again for calling this very important hearing. Welcome to our witnesses.    As we all know, the framework is a colossal retreat from the previous internationally agreed upon benchmarks designed to deny nuclear weapons capability to Iran. For example, U.N. Resolution 1929--to suspend all uranium enrichment--we now know that the framework would allow over 5,000 centrifuges and only limits research and development with advanced centrifuges--full cooperation of the IAEA inspectors, say the U.N. Security Council resolutions.    The framework, we now know, and the statements that have come out of high-ranking people from the ayatollah to Rouhani to high members of the military establishment, military sites are going to be completely off limits.    I mean, that is a deal breaker in and of itself. And then refrain from any activity related to ballistic missiles--U.N. Security Council resolutions, ballistic missiles aren't even on the table, which is a gross missing element in this entire thing.    Let me just ask a couple of questions. I met and talked to Zarif personally about the missing Americans and said if you want to show things had changed in Iran allow human rights to be respected in Iran for your own people but also for Saeed Abedini, Levinson, Hekmati, and Rezaian.    And I have had two hearings myself on Saeed Abedini and they are still being held. That is unbelievable. You know, even when Reagan walked away from Reykjavik in 1986 we had a robust, on the United States side, discussion with Gorbachev with lists of Soviet Jewish refuseniks and other human rights.    It was always on the table. I had Andrew Natsios, who is a leader of an NGO for a pro-human rights for North Korean NGO--and he said the delinking of human rights with North Korea was a major blunder on the part of the Clinton administration and it should have been. We got nothing on the nuclear side. If you can't treat your people well, why should we respect your word when it comes to something so existential as a nuclear bomb.    So my question is, is this a Pyrrhic victory? Are we on the threshold of a Pyrrhic victory when it comes to nuclear agreements? I think your Faustian bargain, Secretary Rademaker, was very well put. Does the Senate have the ability to deem this a treaty and treat it as such?    I looked into this and studied extensively, you know, the State Department has eight criteria--very vague--that they have asserted to call this an executive agreement. It seems to me that is all too cute because, obviously, the threshold of stopping it is reversed.    You only need one-third plus one to stop a treaty and even what Senator Corker has done, which was an outstanding effort, given our limited abilities, it seems, you know, he needs two-thirds to get it passed.    But why a treaty versus an executive agreement? Let me also ask you if you could--similarities with the North Korea deal, you know, how many do they have. I remember the hearings in this room because I have been here a long time, 35 years, when some of the administration people from the Clinton administration were bragging how they were going to have an onsite inspection and it was going to be, like, 6 months down the road.    And I said, are you kidding me--you think in 6 months you will see anything? If they have it, it will be moved somewhere else.    And even the IAEA, in their report in February, they could not conclude there was no nuclear weapons-related activities taking place in the country due to lack of access, to documents, materiel, and personnel. I mean, there are no confidence builders coming from the Iranians.    We are fools, in my opinion, to suggest that this is going to be a deal that they will live up to, especially with the verification protocols so egregiously flawed.    So if you could speak to that, Mr. Rademaker.</t>
   </si>
   <si>
@@ -268,9 +235,6 @@
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman, and I thank the gentlemen for their testimony. I have been running back and forth from different hearings.    But I traveled to Vienna not too long ago and had a conversation with the head of the IAEA because for me--and I guess my question, you know, is one can frame the potential deal as one that would eventually roll back some sanctions in exchange for a significant reduction of centrifuges and increased transparency, transparency being the key issue as well as the IAEA getting to do the work that they need to do and access.    Now, they told me that at least so far while the framework was being worked on Iran has lived up to whatever its commitments were.    But would you say that the key is what would allow an inspector to be satisfied in their work in verifying Iran's implementation of a deal and is that where and what we should be pushing to make sure that there is, in this deal, this transparency issue? Is that--would you think that is the key here?</t>
   </si>
   <si>
@@ -307,9 +271,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman.    Let me just very quickly, if I could--is anything in this treaty so far that you understand, would that prevent or is an agreement by the mullah regime in Iran not to purchase a nuclear weapon from another source?</t>
   </si>
   <si>
@@ -391,9 +352,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman.    I am going to take a slightly different tack but it may look a little bit like my colleague, Mr. Rohrabacher's, for a moment.    Mr. Rademaker, or Secretary, let us expand the question beyond just nuclear for a moment. During your tenure, was Iran a terrorist state?</t>
   </si>
   <si>
@@ -463,9 +421,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman, and thank you to all our witnesses for being here to really discuss a very, very important issue and we all, obviously, will have to make an assessment about a deal if a final agreement materializes. But as is often the case, the devil is in the details and so this hearing is helpful in terms of understanding what we should be looking for and what we should be pressing for.    And if there is any--if the public statements made by both sides with respect to this framework are accurate there seems to be considerable space between the two parties still.    But I want to just start with Mr. Duelfer. You said that the--in your testimony that you thought the sanctions relief should be sort of upside down from what it is, that it shouldn't be IAEA that has to prove something but there should be compliance before any sanctions relief and at least in the summary that has been provided by the administration that is exactly how it does work because it says that after the IAEA has verified Iran has taken all of its key nuclear-related steps then sanctions relief is appropriate.    So you can quarrel about whether or not we can verify that but at least the framework for the agreement is the order that you suggested, that they first determine that there has been compliance and that the actions have been taken by Iran before relief can be granted.</t>
   </si>
   <si>
@@ -505,9 +460,6 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman, and as chairman of the Western Hemisphere Subcommittee let us not forget that Iran is very active in the Western Hemisphere as well.    I would like to yield some time to the gentleman from California to have his question answered. He was on the right track.</t>
   </si>
   <si>
@@ -535,9 +487,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman.    This committee and this body, Congress, has been pretty unanimous in, you know, our voice ratcheting up sanctions and in fact when we spoke with that voice we accomplished what we wanted, which is to make Iran feel the pain and bring them to the table.    Obviously, you know, I commend the administration for taking the ball from there and negotiating but, you know, my big concerns with the framework are given our history with Iran, given Iran's actions in the Middle East and around the world, we can't use the phrase ``trust, then verify.''    We have to start from a place verify, and if you are doing what you are supposed to be doing then you will get trust over time. And, again, that is my perspective.    So maybe, Mr. Albright, thinking about it from that perspective--verify and then trust--what are the minimal verification measures that you believe are needed in a final agreement to ensure Iranian compliance?</t>
   </si>
   <si>
@@ -589,9 +538,6 @@
     <t>412646</t>
   </si>
   <si>
-    <t>Lee M. Zeldin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zeldin. Thank you, Mr. Chairman, and I thank our witnesses for being here today.    First, with regards to a treaty, I am someone who believes that the President is negotiating a treaty it should be treated as such.    I believe our Founding Fathers would agree with that. The President would try to argue precedents. We have the Constitution of the United States which I believe has a process in place that should be respected.    As far as sanctions, the President talks about snap back. For a sanction, that may take several years to put into place. I think in reality it is Fantasyland if you think you can just click your heels back together and sanctions that take that long to put into place if Iran has a violation that all of a sudden they are just going to be snapped back.    And I think that my constituents, the American people, are starting to catch on to that. It is important to understand where we are right now.    The President, just 3 weeks ago, he announces a framework agreement. He puts out a fact sheet. Within 24 hours, the Iranian foreign minister is on his official Twitter feed calling it just a spin. The ayatollah is on the streets chanting ``Death to America.''    In order to have an agreement, both sides have to agree to material terms. We are talking about a framework as if the Iranians actually agree to it.    I think that one of--one thing that might have been agreed to 3 weeks ago at the table is that both sides were agreeing to go back to the their home countries and spin wherever they thought we were at that moment--this moment in these talks to whatever best serves their own domestic politics.    I have concern about critical components where if there is no agreement that it can be worded in a broad vague way for each side to interpret the agreement differently. And we may be presented an agreement in English that may not be accurately translated.    So there are multiple levels to the complication. So we may be interpreting an agreement that the Iranians interpret completely differently. We already know what the President is going to say.    If he reaches an agreement, no matter what the agreement says--he may say this agreement is good for the United States, good for our allies and good for the safety of the entire world, he may say compliance will be certified by the International Atomic Energy Agency.    That sounds familiar? Those were Bill Clinton's words in 1994, October 18th, announcing a nuclear agreement with North Korea and we all know how that turned out. What else will he say?    He will tell us this is a good deal that prevents Iran from having a nuclear weapon. Well, what isn't included in this deal? We aren't talking about Iran, state sponsors of terrorism.    We are not talking about their work to overthrow foreign governments, pledging to erase Israel from the map, chanting ``Death to America.'' This doesn't include their development of ICBMs or their unjustly holding and imprisoning United States citizens.    Right now, a lot of people--a lot of our constituents are watching the playoffs. Basketball is going on and hockey. These are seven-game series. The first team that wins four wins the series and you move on.    The President is--I mean, this is like the number-one seed--the United States of America--we are going up against a mediocre Division II basketball team and we decide to give up our first three games.    We are now trailing in the fourth game. The President should call a time out. He should take a walk, take a breath and come back with a stronger hand.    This is the United States of America. There is no reason that we should be playing as if these are our equals and it is not that hard for him to do that.    My question for our witnesses here this morning is this. There was some chatter about legislation and one proposal that these talks require Iran to recognize Israel's right to exist.    With the ayatollah in the streets chanting death to America while these negotiations are going on, blowing up mock U.S. warships and everything else they are doing wrong, should these talks include Iran recognizing America's right to exist?</t>
   </si>
   <si>
@@ -619,9 +565,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you so much, Mr. Chairman, and welcome to our panel.    Mr. Rademaker, does Congress get to declare what is and it not a formal treaty pursuant to the Constitution, in your experience?</t>
   </si>
   <si>
@@ -757,9 +700,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. Thank you, gentlemen.    I want to start with a quote from John Kerry in the Washington Post. It says,        ``If Iran's nuclear program is truly peaceful it is not         a hard proposition to prove. The only reasonable         conclusion for its stonewalling of international         investigators is that Tehran does not--does indeed have         much to hide.''    And then President Eisenhower back in the late '50s, early '60s said Atoms for Peace program, one lesson is clear--civilian nuclear programs flourish only through cooperation and openness. Secrecy and isolation are typically signs of a nuclear weapons program.    And I think it is very evident that they have been very--not willing to be forthright and allow the inspectors in there, and then my question is this. Without the sanctions, in your opinion would Iran have weapons now or eventually? Yes, all three of you real quick.</t>
   </si>
   <si>
@@ -823,9 +763,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chairman, and I thank the witnesses for your testimony. I have learned a lot.    I would like to kind of zero in a little bit more in depth in terms of what really the purpose is. We are not--I am not concerned from the panelists about the contents of the framework of the final deal but of the verification process--can we verify.    And so my first question is the inspection is being done primarily by the IAEA. Is that not correct? The question is do they have the resources to do what we are going to be asking them to do and who will provide these additional resources and if it is not in terms of the inspection how would you verify?    I don't want to hear about whether it is a good deal or not. The question is how would you propose to verify that the Iranians are not complying with the deal?    Can the--first of all, can the IAEA do it and if not what resources are they going to need to do it and who is going to provide those resources?</t>
   </si>
   <si>
@@ -883,9 +820,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman. Thank you, gentlemen. Just curious, Mr. Rademaker, of the executive agreements that you have cited--there are many--are there any that provide for nuclear nonproliferation?</t>
   </si>
   <si>
@@ -1012,9 +946,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair.    First, I just--I want to just state what is obvious to all of us here, which is that Iran should not be allowed to get a nuclear weapon. They are the leading state sponsor of terror.    They remain the most destabilized actor in the region and nuclear weapons would allow them to play an even more dangerous role and spark a nuclear proliferation throughout the Middle East. So I think we all agree on that.    Do you all agree that a negotiated agreement would be a better solution than a military action?</t>
   </si>
   <si>
@@ -1130,9 +1061,6 @@
   </si>
   <si>
     <t>412552</t>
-  </si>
-  <si>
-    <t>Mark Meadows</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank you to each of you for your testimony today.    My staff has been working on a number of issues that really are perplexing and, Mr. Rademaker, you kind of alluded to it just a few minutes ago.    You know, five executive orders, over 10 codified laws that required Congress to act to remove the sanctions in some way, form or fashion from Iran.    And yet here we are today discussing this particular deal of a new deal when Iran is violating not only outlined codified law on our behalf but, according to your testimony just now, U.N. sanctions.    Is that correct? Are they violating U.N. sanctions by having a nuclear program?</t>
@@ -1624,11 +1552,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1648,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1676,11 +1600,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1700,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1728,11 +1648,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1752,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1780,11 +1696,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1804,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1832,11 +1744,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1856,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1884,11 +1792,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1908,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1936,11 +1840,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1960,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1988,11 +1888,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2012,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2040,11 +1936,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2064,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2092,11 +1984,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2116,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2144,11 +2032,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2168,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2196,11 +2080,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2220,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2248,11 +2128,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2272,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2298,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2324,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2350,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2376,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2402,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2428,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2456,11 +2320,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2480,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2506,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2532,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2558,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2584,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2610,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2636,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2664,11 +2512,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2688,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" t="s">
-        <v>69</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2714,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2740,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" t="s">
-        <v>69</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2766,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2792,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2820,11 +2656,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2844,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2870,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2896,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2922,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2950,11 +2776,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2974,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" t="s">
-        <v>84</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3000,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3026,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" t="s">
-        <v>84</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3054,11 +2872,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3078,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" t="s">
-        <v>84</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3104,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3130,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3156,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3182,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3208,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3236,11 +3040,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3260,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
-      </c>
-      <c r="G65" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3286,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3312,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3338,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3364,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3390,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3416,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G71" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3442,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3468,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3494,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3520,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3548,11 +3328,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3572,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3598,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3624,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3650,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3676,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3702,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3728,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3754,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3780,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3806,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3832,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3858,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3884,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3912,11 +3664,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3936,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
-      </c>
-      <c r="G91" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3962,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
-      </c>
-      <c r="G92" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3988,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
-      </c>
-      <c r="G93" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4014,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4040,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>124</v>
-      </c>
-      <c r="G95" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4066,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
-      </c>
-      <c r="G96" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4092,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4118,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4144,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4170,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4196,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4222,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4248,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>124</v>
-      </c>
-      <c r="G103" t="s">
-        <v>125</v>
-      </c>
-      <c r="H103" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4274,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4300,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
-      </c>
-      <c r="G105" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4326,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4352,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4378,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4404,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>124</v>
-      </c>
-      <c r="G109" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4430,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4456,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4484,11 +4192,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4508,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>148</v>
-      </c>
-      <c r="G113" t="s">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4534,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4560,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>148</v>
-      </c>
-      <c r="G115" t="s">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4586,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4612,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>148</v>
-      </c>
-      <c r="G117" t="s">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4638,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4664,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" t="s">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4690,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4716,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>148</v>
-      </c>
-      <c r="G121" t="s">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4742,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4768,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
-      </c>
-      <c r="G123" t="s">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4796,11 +4480,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4820,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>162</v>
-      </c>
-      <c r="G125" t="s">
-        <v>163</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4846,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>124</v>
-      </c>
-      <c r="G126" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4872,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4898,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>124</v>
-      </c>
-      <c r="G128" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4924,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
-      </c>
-      <c r="G129" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4950,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>124</v>
-      </c>
-      <c r="G130" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4976,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>162</v>
-      </c>
-      <c r="G131" t="s">
-        <v>163</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5004,11 +4672,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5028,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>172</v>
-      </c>
-      <c r="G133" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5054,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
-      </c>
-      <c r="G134" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5080,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>172</v>
-      </c>
-      <c r="G135" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5106,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5132,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G137" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5158,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G138" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5184,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>172</v>
-      </c>
-      <c r="G139" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5210,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5236,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>172</v>
-      </c>
-      <c r="G141" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5262,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
-      </c>
-      <c r="G142" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5288,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>172</v>
-      </c>
-      <c r="G143" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5314,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
-      </c>
-      <c r="G144" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5340,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>172</v>
-      </c>
-      <c r="G145" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5366,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5392,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>172</v>
-      </c>
-      <c r="G147" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5420,11 +5056,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5444,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>190</v>
-      </c>
-      <c r="G149" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5470,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5496,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>190</v>
-      </c>
-      <c r="G151" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5522,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
-      </c>
-      <c r="G152" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5548,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>190</v>
-      </c>
-      <c r="G153" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5574,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
-      </c>
-      <c r="G154" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5600,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>190</v>
-      </c>
-      <c r="G155" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5628,11 +5248,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5652,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>200</v>
-      </c>
-      <c r="G157" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5678,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5704,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>200</v>
-      </c>
-      <c r="G159" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5730,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
-      </c>
-      <c r="G160" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5756,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>200</v>
-      </c>
-      <c r="G161" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5782,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
-      </c>
-      <c r="G162" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5808,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>200</v>
-      </c>
-      <c r="G163" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5834,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
-      </c>
-      <c r="G164" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5860,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>200</v>
-      </c>
-      <c r="G165" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5886,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
-      </c>
-      <c r="G166" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5912,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>200</v>
-      </c>
-      <c r="G167" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5938,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
-      </c>
-      <c r="G168" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5964,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>200</v>
-      </c>
-      <c r="G169" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5990,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
-      </c>
-      <c r="G170" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6016,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>200</v>
-      </c>
-      <c r="G171" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6042,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
-      </c>
-      <c r="G172" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6068,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>200</v>
-      </c>
-      <c r="G173" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6094,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
-      </c>
-      <c r="G174" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6120,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>200</v>
-      </c>
-      <c r="G175" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6146,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
-      </c>
-      <c r="G176" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6172,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
+        <v>182</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
         <v>200</v>
-      </c>
-      <c r="G177" t="s">
-        <v>201</v>
-      </c>
-      <c r="H177" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6198,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
-      </c>
-      <c r="G178" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6224,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>200</v>
-      </c>
-      <c r="G179" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6250,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
-      </c>
-      <c r="G180" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6276,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>200</v>
-      </c>
-      <c r="G181" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6302,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
-      </c>
-      <c r="G182" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6328,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>200</v>
-      </c>
-      <c r="G183" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6354,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
-      </c>
-      <c r="G184" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6380,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>200</v>
-      </c>
-      <c r="G185" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6406,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
-      </c>
-      <c r="G186" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6432,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>200</v>
-      </c>
-      <c r="G187" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6458,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
-      </c>
-      <c r="G188" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6484,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>200</v>
-      </c>
-      <c r="G189" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6510,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
-      </c>
-      <c r="G190" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6536,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>200</v>
-      </c>
-      <c r="G191" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6562,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6588,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>200</v>
-      </c>
-      <c r="G193" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6614,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
-      </c>
-      <c r="G194" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6640,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>200</v>
-      </c>
-      <c r="G195" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6666,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
-      </c>
-      <c r="G196" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6692,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>200</v>
-      </c>
-      <c r="G197" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6718,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
-      </c>
-      <c r="G198" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6744,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>200</v>
-      </c>
-      <c r="G199" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6770,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
-      </c>
-      <c r="G200" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6796,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>200</v>
-      </c>
-      <c r="G201" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6822,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
-      </c>
-      <c r="G202" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6848,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>200</v>
-      </c>
-      <c r="G203" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6874,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
-      </c>
-      <c r="G204" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6900,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>200</v>
-      </c>
-      <c r="G205" t="s">
-        <v>201</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6928,11 +6448,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6952,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>246</v>
-      </c>
-      <c r="G207" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6978,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
-      </c>
-      <c r="G208" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7004,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>246</v>
-      </c>
-      <c r="G209" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7030,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
-      </c>
-      <c r="G210" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7056,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>246</v>
-      </c>
-      <c r="G211" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7082,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
-      </c>
-      <c r="G212" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7108,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>246</v>
-      </c>
-      <c r="G213" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7134,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
-      </c>
-      <c r="G214" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7160,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>246</v>
-      </c>
-      <c r="G215" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7186,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
-      </c>
-      <c r="G216" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7212,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>246</v>
-      </c>
-      <c r="G217" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7238,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
-      </c>
-      <c r="G218" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7264,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>246</v>
-      </c>
-      <c r="G219" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7290,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
-      </c>
-      <c r="G220" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7316,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>246</v>
-      </c>
-      <c r="G221" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7342,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
-      </c>
-      <c r="G222" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7368,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>246</v>
-      </c>
-      <c r="G223" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7394,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
-      </c>
-      <c r="G224" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7420,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
+        <v>227</v>
+      </c>
+      <c r="G225" t="s"/>
+      <c r="H225" t="s">
         <v>246</v>
-      </c>
-      <c r="G225" t="s">
-        <v>247</v>
-      </c>
-      <c r="H225" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7448,11 +6928,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7472,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>268</v>
-      </c>
-      <c r="G227" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7498,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
-      </c>
-      <c r="G228" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7524,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>268</v>
-      </c>
-      <c r="G229" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7550,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
-      </c>
-      <c r="G230" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7576,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>268</v>
-      </c>
-      <c r="G231" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7602,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
-      </c>
-      <c r="G232" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7628,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>268</v>
-      </c>
-      <c r="G233" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7654,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
-      </c>
-      <c r="G234" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7680,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>268</v>
-      </c>
-      <c r="G235" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7706,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
-      </c>
-      <c r="G236" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7732,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>268</v>
-      </c>
-      <c r="G237" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7758,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
-      </c>
-      <c r="G238" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7784,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>268</v>
-      </c>
-      <c r="G239" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7810,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
-      </c>
-      <c r="G240" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7836,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>268</v>
-      </c>
-      <c r="G241" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7862,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
-      </c>
-      <c r="G242" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7888,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>268</v>
-      </c>
-      <c r="G243" t="s">
-        <v>269</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7916,11 +7360,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7940,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>288</v>
-      </c>
-      <c r="G245" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7966,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
-      </c>
-      <c r="G246" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7992,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>288</v>
-      </c>
-      <c r="G247" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8018,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
-      </c>
-      <c r="G248" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8044,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>288</v>
-      </c>
-      <c r="G249" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8070,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
-      </c>
-      <c r="G250" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8096,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>288</v>
-      </c>
-      <c r="G251" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8122,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
-      </c>
-      <c r="G252" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8148,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>288</v>
-      </c>
-      <c r="G253" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8174,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
-      </c>
-      <c r="G254" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8200,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>288</v>
-      </c>
-      <c r="G255" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8226,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
-      </c>
-      <c r="G256" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8252,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>288</v>
-      </c>
-      <c r="G257" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8278,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>34</v>
-      </c>
-      <c r="G258" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8304,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>288</v>
-      </c>
-      <c r="G259" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8330,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
-      </c>
-      <c r="G260" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8356,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>288</v>
-      </c>
-      <c r="G261" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8382,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
-      </c>
-      <c r="G262" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8408,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>288</v>
-      </c>
-      <c r="G263" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8434,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>34</v>
-      </c>
-      <c r="G264" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8460,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>288</v>
-      </c>
-      <c r="G265" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8486,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>34</v>
-      </c>
-      <c r="G266" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8512,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>288</v>
-      </c>
-      <c r="G267" t="s">
+        <v>267</v>
+      </c>
+      <c r="G267" t="s"/>
+      <c r="H267" t="s">
         <v>289</v>
-      </c>
-      <c r="H267" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8538,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
-      </c>
-      <c r="G268" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8564,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>288</v>
-      </c>
-      <c r="G269" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8590,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
-      </c>
-      <c r="G270" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8616,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>288</v>
-      </c>
-      <c r="G271" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8642,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
-      </c>
-      <c r="G272" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8668,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>288</v>
-      </c>
-      <c r="G273" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8694,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>34</v>
-      </c>
-      <c r="G274" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8720,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>288</v>
-      </c>
-      <c r="G275" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8746,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
-      </c>
-      <c r="G276" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8772,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>288</v>
-      </c>
-      <c r="G277" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8798,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
-      </c>
-      <c r="G278" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8824,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>288</v>
-      </c>
-      <c r="G279" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8850,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>34</v>
-      </c>
-      <c r="G280" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8876,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>288</v>
-      </c>
-      <c r="G281" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8902,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
-      </c>
-      <c r="G282" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8928,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>288</v>
-      </c>
-      <c r="G283" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8954,13 +8318,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>34</v>
-      </c>
-      <c r="G284" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8980,13 +8342,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>288</v>
-      </c>
-      <c r="G285" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9008,11 +8368,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9032,13 +8390,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>331</v>
-      </c>
-      <c r="G287" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9058,13 +8414,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>34</v>
-      </c>
-      <c r="G288" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9084,13 +8438,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>34</v>
-      </c>
-      <c r="G289" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9110,13 +8462,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>331</v>
-      </c>
-      <c r="G290" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9136,13 +8486,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
-      </c>
-      <c r="G291" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9162,13 +8510,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>331</v>
-      </c>
-      <c r="G292" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9188,13 +8534,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
-      </c>
-      <c r="G293" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9214,13 +8558,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>331</v>
-      </c>
-      <c r="G294" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9240,13 +8582,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>34</v>
-      </c>
-      <c r="G295" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9266,13 +8606,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>331</v>
-      </c>
-      <c r="G296" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9292,13 +8630,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
-      </c>
-      <c r="G297" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9318,13 +8654,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>331</v>
-      </c>
-      <c r="G298" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9344,13 +8678,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>34</v>
-      </c>
-      <c r="G299" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9370,13 +8702,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>331</v>
-      </c>
-      <c r="G300" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9396,13 +8726,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>34</v>
-      </c>
-      <c r="G301" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9422,13 +8750,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
-      </c>
-      <c r="G302" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9448,13 +8774,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>331</v>
-      </c>
-      <c r="G303" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9474,13 +8798,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>34</v>
-      </c>
-      <c r="G304" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9500,13 +8822,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>331</v>
-      </c>
-      <c r="G305" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9526,13 +8846,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>34</v>
-      </c>
-      <c r="G306" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9552,13 +8870,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>331</v>
-      </c>
-      <c r="G307" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9578,13 +8894,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>34</v>
-      </c>
-      <c r="G308" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9604,13 +8918,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
+        <v>309</v>
+      </c>
+      <c r="G309" t="s"/>
+      <c r="H309" t="s">
         <v>331</v>
-      </c>
-      <c r="G309" t="s">
-        <v>332</v>
-      </c>
-      <c r="H309" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9630,13 +8942,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>34</v>
-      </c>
-      <c r="G310" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9656,13 +8966,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>331</v>
-      </c>
-      <c r="G311" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9682,13 +8990,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>34</v>
-      </c>
-      <c r="G312" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9708,13 +9014,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>331</v>
-      </c>
-      <c r="G313" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9734,13 +9038,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>34</v>
-      </c>
-      <c r="G314" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9760,13 +9062,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>331</v>
-      </c>
-      <c r="G315" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9786,13 +9086,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>34</v>
-      </c>
-      <c r="G316" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9812,13 +9110,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>331</v>
-      </c>
-      <c r="G317" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9838,13 +9134,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>34</v>
-      </c>
-      <c r="G318" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9864,13 +9158,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>331</v>
-      </c>
-      <c r="G319" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9890,13 +9182,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>34</v>
-      </c>
-      <c r="G320" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9916,13 +9206,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>331</v>
-      </c>
-      <c r="G321" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9942,13 +9230,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>34</v>
-      </c>
-      <c r="G322" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9968,13 +9254,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>331</v>
-      </c>
-      <c r="G323" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9994,13 +9278,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>34</v>
-      </c>
-      <c r="G324" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10020,13 +9302,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>331</v>
-      </c>
-      <c r="G325" t="s">
-        <v>332</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10048,11 +9328,9 @@
       <c r="F326" t="s">
         <v>11</v>
       </c>
-      <c r="G326" t="s">
-        <v>12</v>
-      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10072,13 +9350,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>371</v>
-      </c>
-      <c r="G327" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10098,13 +9374,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>34</v>
-      </c>
-      <c r="G328" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10124,13 +9398,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>371</v>
-      </c>
-      <c r="G329" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10150,13 +9422,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>34</v>
-      </c>
-      <c r="G330" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10176,13 +9446,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>371</v>
-      </c>
-      <c r="G331" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10202,13 +9470,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>34</v>
-      </c>
-      <c r="G332" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10228,13 +9494,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>371</v>
-      </c>
-      <c r="G333" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10254,13 +9518,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
-      </c>
-      <c r="G334" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10280,13 +9542,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>371</v>
-      </c>
-      <c r="G335" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10306,13 +9566,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>34</v>
-      </c>
-      <c r="G336" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10332,13 +9590,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>371</v>
-      </c>
-      <c r="G337" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10358,13 +9614,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>34</v>
-      </c>
-      <c r="G338" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10384,13 +9638,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>371</v>
-      </c>
-      <c r="G339" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10410,13 +9662,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>34</v>
-      </c>
-      <c r="G340" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10436,13 +9686,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>371</v>
-      </c>
-      <c r="G341" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10462,13 +9710,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>34</v>
-      </c>
-      <c r="G342" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10488,13 +9734,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>371</v>
-      </c>
-      <c r="G343" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10514,13 +9758,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
-      </c>
-      <c r="G344" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10540,13 +9782,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>371</v>
-      </c>
-      <c r="G345" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10566,13 +9806,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>34</v>
-      </c>
-      <c r="G346" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10592,13 +9830,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>34</v>
-      </c>
-      <c r="G347" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10618,13 +9854,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>371</v>
-      </c>
-      <c r="G348" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10644,13 +9878,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>34</v>
-      </c>
-      <c r="G349" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10670,13 +9902,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>371</v>
-      </c>
-      <c r="G350" t="s">
+        <v>348</v>
+      </c>
+      <c r="G350" t="s"/>
+      <c r="H350" t="s">
         <v>372</v>
-      </c>
-      <c r="H350" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10696,13 +9926,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>34</v>
-      </c>
-      <c r="G351" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10722,13 +9950,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>371</v>
-      </c>
-      <c r="G352" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10748,13 +9974,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>34</v>
-      </c>
-      <c r="G353" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10774,13 +9998,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>371</v>
-      </c>
-      <c r="G354" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10800,13 +10022,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>34</v>
-      </c>
-      <c r="G355" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10826,13 +10046,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>371</v>
-      </c>
-      <c r="G356" t="s">
-        <v>372</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10854,11 +10072,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>12</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
